--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>případ užití - Zadat/změnit objednávku (Změna obj. z kuchyně)</t>
+  </si>
+  <si>
+    <t>případy užití - textové scénáře</t>
+  </si>
+  <si>
+    <t>Use Case - doplnění popisů</t>
+  </si>
+  <si>
+    <t>BPM - objednávka (oprava)</t>
+  </si>
+  <si>
+    <t>případy užití - generování dokumentace</t>
   </si>
 </sst>
 </file>
@@ -462,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +506,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>20.25</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,6 +694,38 @@
       </c>
       <c r="B28" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>případy užití - generování dokumentace</t>
+  </si>
+  <si>
+    <t>2. iterace - opravy před odevzdáním</t>
+  </si>
+  <si>
+    <t>2. iterace - první generování dokumentace</t>
+  </si>
+  <si>
+    <t>BPM - opravy Objednávka od zákazníka</t>
+  </si>
+  <si>
+    <t>Scénáře - oprava</t>
+  </si>
+  <si>
+    <t>Flows - oprava</t>
   </si>
 </sst>
 </file>
@@ -474,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +521,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>21.25</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,6 +741,46 @@
       </c>
       <c r="B32" s="8">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Flows - oprava</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -489,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>24.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,6 +784,14 @@
       </c>
       <c r="B37" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>Uživatelský manuál</t>
   </si>
 </sst>
 </file>
@@ -492,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,6 +795,14 @@
       </c>
       <c r="B38" s="8">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Uživatelský manuál</t>
+  </si>
+  <si>
+    <t>modely UML balíčků</t>
   </si>
 </sst>
 </file>
@@ -495,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>28</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,6 +806,14 @@
       </c>
       <c r="B39" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>dokumentace</t>
+  </si>
+  <si>
+    <t>3. iterace - generování dokumentace</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +539,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>29.75</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,6 +838,14 @@
         <v>40</v>
       </c>
       <c r="B42" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
         <v>0.5</v>
       </c>
     </row>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>3. iterace - generování dokumentace</t>
+  </si>
+  <si>
+    <t>Instalační manuál</t>
   </si>
 </sst>
 </file>
@@ -507,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>30.25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,6 +850,14 @@
       </c>
       <c r="B43" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Instalační manuál</t>
+  </si>
+  <si>
+    <t>kontrola a oponentura 3.iterace ŠIP</t>
   </si>
 </sst>
 </file>
@@ -510,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>31</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,6 +861,14 @@
       </c>
       <c r="B44" s="8">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>kontrola a oponentura 3.iterace ŠIP</t>
+  </si>
+  <si>
+    <t>regenerace dokumentace 3. iterace</t>
   </si>
 </sst>
 </file>
@@ -513,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +548,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>32.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,6 +872,14 @@
       </c>
       <c r="B45" s="8">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>regenerace dokumentace 3. iterace</t>
+  </si>
+  <si>
+    <t>aktualizace uživatelského manuálu</t>
   </si>
 </sst>
 </file>
@@ -516,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,6 +883,14 @@
       </c>
       <c r="B46" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -519,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>34</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,6 +891,14 @@
       </c>
       <c r="B47" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>aktualizace uživatelského manuálu</t>
+  </si>
+  <si>
+    <t>kontrola a oponentura 4.iterace ŠIP</t>
   </si>
 </sst>
 </file>
@@ -519,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,6 +902,14 @@
       </c>
       <c r="B48" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Michal Stanke.xlsx
+++ b/Výkazy/Michal Stanke.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -154,7 +154,10 @@
     <t>aktualizace uživatelského manuálu</t>
   </si>
   <si>
-    <t>kontrola a oponentura 4.iterace ŠIP</t>
+    <t>kontrola a oponentura 4. iterace ŠIP</t>
+  </si>
+  <si>
+    <t>aktualizace dokumentace - oprava testovacích scénářů</t>
   </si>
 </sst>
 </file>
@@ -522,16 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,7 +557,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>35.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,6 +913,14 @@
       </c>
       <c r="B49" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
